--- a/Project 1/InsertingAndFormattingText.xlsx
+++ b/Project 1/InsertingAndFormattingText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57de5c48f32aaca3/OfficeNewb/Videos/MicrosoftOffice/ExcelVBA/Exercise Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASHTIN\Desktop\Adv Excel\MS EXCEL UDEMY\AdvExcel Projects\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_4287D7692A62DD7A95F46B6760621216E4E6981B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67E8DD85-43BA-4E16-B666-0D568DC1C4CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2379E210-6EA7-4264-A18B-A03D7359BE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A4:F18"/>
+  <dimension ref="A4:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,6 +684,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>822</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
